--- a/Diagrama Martilotta Agustin.xlsx
+++ b/Diagrama Martilotta Agustin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguco\Desktop\Proyectos\Cursos de CoderHouse\ModuloSQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguco\Desktop\Proyectos\Cursos de CoderHouse\ModuloSQL\tournament_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>JUGADOR</t>
   </si>
@@ -44,103 +44,100 @@
     <t>REGISTRO DE PUNTUACIONES</t>
   </si>
   <si>
-    <t>Nombre (varchar)</t>
-  </si>
-  <si>
-    <t>Apellido (varchar)</t>
-  </si>
-  <si>
-    <t>País (varchar)</t>
-  </si>
-  <si>
-    <t>Desarrollador (varchar)</t>
-  </si>
-  <si>
-    <t>Género (varchar)</t>
-  </si>
-  <si>
-    <t>Plataforma (varchar)</t>
-  </si>
-  <si>
-    <t>Premios (varchar)</t>
-  </si>
-  <si>
-    <t>Resultados (varchar)</t>
-  </si>
-  <si>
-    <t>Duración (varchar)</t>
-  </si>
-  <si>
-    <t>Fecha Y hora (date)</t>
-  </si>
-  <si>
-    <t>Fecha de finalizacion (date)</t>
-  </si>
-  <si>
-    <t>Fecha de Inicio (date)</t>
-  </si>
-  <si>
-    <t>Fecha de Nacimiento (date)</t>
-  </si>
-  <si>
-    <t>Idjugador (int)</t>
-  </si>
-  <si>
-    <t>Idequipo (int)</t>
-  </si>
-  <si>
-    <t>Idjuego (int)</t>
-  </si>
-  <si>
-    <t>Idtorneo (int)</t>
-  </si>
-  <si>
-    <t>Idpartida (int)</t>
-  </si>
-  <si>
-    <t>Idpuntuacion (int)</t>
-  </si>
-  <si>
-    <t>Información de contacto (varchar)</t>
-  </si>
-  <si>
-    <t>IDTorneo (int)</t>
-  </si>
-  <si>
-    <t>Idequipo  (int)</t>
-  </si>
-  <si>
-    <t>IDJugador  (int)</t>
-  </si>
-  <si>
-    <t>IDJuego  (int)</t>
-  </si>
-  <si>
-    <t>Puntuacion Obtenida  (int)</t>
-  </si>
-  <si>
-    <t>IDJuego(int)</t>
-  </si>
-  <si>
-    <t>IDTorneo(int)</t>
-  </si>
-  <si>
-    <t>Fecha de creacion (date)</t>
-  </si>
-  <si>
-    <t>Idtorneo(int)</t>
-  </si>
-  <si>
-    <t>COLOR CLAVE FORANEA</t>
-  </si>
-  <si>
-    <t>COLOR CLAVE PRIMARIA</t>
-  </si>
-  <si>
-    <t>COLOR ENTIDADES</t>
-  </si>
-  <si>
-    <t>/*SELECT * FROM JUGADOR AS JU JOIN EQUIPO AS EQ  ON JU.IDEQUIPO = EQ.IDEQUIPO  WHERE IDEQUIPO = 20 ;*/</t>
+    <t>informacion_de_contacto (varchar)</t>
+  </si>
+  <si>
+    <t>nombre (varchar)</t>
+  </si>
+  <si>
+    <t>apellido (varchar)</t>
+  </si>
+  <si>
+    <t>fecha_de_nacimiento (date)</t>
+  </si>
+  <si>
+    <t>pais (varchar)</t>
+  </si>
+  <si>
+    <t>id_jugador (int)</t>
+  </si>
+  <si>
+    <t>id_equipo (int)</t>
+  </si>
+  <si>
+    <t>id_torneo(int)</t>
+  </si>
+  <si>
+    <t>fecha_de_creacion (date)</t>
+  </si>
+  <si>
+    <t>nombre_equipo (varchar)</t>
+  </si>
+  <si>
+    <t>id_juego (int)</t>
+  </si>
+  <si>
+    <t>plataforma (varchar)</t>
+  </si>
+  <si>
+    <t>genero (varchar)</t>
+  </si>
+  <si>
+    <t>desarrollador (varchar)</t>
+  </si>
+  <si>
+    <t>nombre_torneo (varchar)</t>
+  </si>
+  <si>
+    <t>id_torneo (int)</t>
+  </si>
+  <si>
+    <t>id_Juego(int)</t>
+  </si>
+  <si>
+    <t>premios (varchar)</t>
+  </si>
+  <si>
+    <t>fecha_de_finalizacion (date)</t>
+  </si>
+  <si>
+    <t>fecha_de_inicio (date)</t>
+  </si>
+  <si>
+    <t>id_partida (int)</t>
+  </si>
+  <si>
+    <t>id_equipo  (int)</t>
+  </si>
+  <si>
+    <t>resultados (varchar)</t>
+  </si>
+  <si>
+    <t>duracion (varchar)</t>
+  </si>
+  <si>
+    <t>fecha_y_hora (date)</t>
+  </si>
+  <si>
+    <t>puntuacion_obtenida  (int)</t>
+  </si>
+  <si>
+    <t>id_Juego  (int)</t>
+  </si>
+  <si>
+    <t>id_Jugador  (int)</t>
+  </si>
+  <si>
+    <t>id_puntuacion (int)</t>
+  </si>
+  <si>
+    <t>COLOR ENTIDADES (Tablas)</t>
+  </si>
+  <si>
+    <t>COLOR CLAVE FORANEA (FK)</t>
+  </si>
+  <si>
+    <t>COLOR CLAVE PRIMARIA (PK)</t>
   </si>
 </sst>
 </file>
@@ -521,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,139 +556,136 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
